--- a/cars_traffic_data_extended.xlsx
+++ b/cars_traffic_data_extended.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chimi\Desktop\count cars\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0913085F-922C-421E-A67C-B8F6FC427E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Traffic Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -133,8 +139,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,13 +203,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -241,7 +255,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -275,6 +289,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -309,9 +324,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -484,14 +500,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" customWidth="1"/>
+    <col min="4" max="4" width="41.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -519,7 +543,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -533,7 +557,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -547,7 +571,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -561,7 +585,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -575,7 +599,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -589,7 +613,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -603,7 +627,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -617,7 +641,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -631,7 +655,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -645,7 +669,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -659,7 +683,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -673,7 +697,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -687,7 +711,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -701,7 +725,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -715,7 +739,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -729,7 +753,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -743,7 +767,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -757,7 +781,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -771,7 +795,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -785,7 +809,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -799,7 +823,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -813,7 +837,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -827,7 +851,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -841,7 +865,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -855,7 +879,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -869,7 +893,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -883,7 +907,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -897,7 +921,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -911,7 +935,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -925,7 +949,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -939,7 +963,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -953,7 +977,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -967,7 +991,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -981,7 +1005,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -995,7 +1019,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1009,7 +1033,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1023,7 +1047,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -1037,7 +1061,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1051,7 +1075,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -1065,7 +1089,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1079,7 +1103,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1093,7 +1117,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -1107,7 +1131,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -1121,7 +1145,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -1135,7 +1159,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1149,7 +1173,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -1163,7 +1187,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -1177,7 +1201,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -1191,7 +1215,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -1205,7 +1229,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -1219,7 +1243,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1233,7 +1257,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -1247,7 +1271,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -1261,7 +1285,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -1275,7 +1299,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -1289,7 +1313,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -1303,7 +1327,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1317,7 +1341,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -1331,7 +1355,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -1345,7 +1369,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -1359,7 +1383,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -1373,7 +1397,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -1387,7 +1411,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -1401,7 +1425,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -1415,7 +1439,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -1429,7 +1453,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -1443,7 +1467,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -1457,7 +1481,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -1471,7 +1495,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -1485,7 +1509,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -1499,7 +1523,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -1513,7 +1537,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -1527,7 +1551,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -1541,7 +1565,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -1555,7 +1579,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -1569,7 +1593,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -1583,7 +1607,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -1597,7 +1621,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -1611,7 +1635,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -1625,7 +1649,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -1639,7 +1663,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -1653,7 +1677,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -1667,7 +1691,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -1681,7 +1705,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -1695,7 +1719,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -1709,7 +1733,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -1723,7 +1747,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -1737,7 +1761,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -1751,7 +1775,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -1765,7 +1789,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -1779,7 +1803,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -1793,7 +1817,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -1807,7 +1831,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -1821,7 +1845,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -1835,7 +1859,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -1849,7 +1873,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -1863,7 +1887,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -1877,7 +1901,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -1891,7 +1915,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -1905,7 +1929,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -1919,7 +1943,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -1933,7 +1957,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -1947,7 +1971,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -1961,7 +1985,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -1975,7 +1999,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -1989,7 +2013,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -2003,7 +2027,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -2017,7 +2041,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -2031,7 +2055,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -2045,7 +2069,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -2059,7 +2083,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -2073,7 +2097,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -2087,7 +2111,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -2101,7 +2125,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -2115,7 +2139,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -2129,7 +2153,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -2143,7 +2167,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -2157,7 +2181,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -2171,7 +2195,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>7</v>
       </c>
